--- a/Physical_computing_list.xlsx
+++ b/Physical_computing_list.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoenixperry/Library/Containers/com.apple.mail/Data/Library/Mail Downloads/AF81C133-F444-4D52-9708-545BF9A037E0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/phoenixperry/Documents/goldsmiths/hackerspace/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t xml:space="preserve">Resistors </t>
   </si>
   <si>
-    <t>http://www.rapidonline.com/Tools-Equipment/Draper-77180-0-8mm-Flux-Cored-Mig-Wire-450g-91-6269?sourceRefKey=PzR5OoLZZ&amp;filterSearchScope=0</t>
-  </si>
-  <si>
     <t>Solder (flux core)</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.rapidonline.com/tools-equipment/xytronic-44-415403-403-soldering-bit-pointed-0-4mm-85-0967 </t>
+  </si>
+  <si>
+    <t>http://www.amazon.co.uk/Solder-Cored-Flux-Resin-0-7mm/dp/B002L5Y8R8/ref=sr_1_1?s=diy&amp;rps=1&amp;ie=UTF8&amp;qid=1456933742&amp;sr=1-1&amp;keywords=solder</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -569,16 +569,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -625,7 +625,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -634,12 +634,12 @@
         <v>11.26</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>30</v>
@@ -648,12 +648,12 @@
         <v>1.25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>9</v>
@@ -662,12 +662,12 @@
         <v>3.7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>9</v>
@@ -676,12 +676,12 @@
         <v>4.05</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -690,7 +690,7 @@
         <v>7.59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -704,12 +704,12 @@
         <v>9.92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -718,12 +718,12 @@
         <v>0.46</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -732,12 +732,12 @@
         <v>3.1</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -746,12 +746,12 @@
         <v>3.39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -760,12 +760,12 @@
         <v>11.07</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -774,12 +774,12 @@
         <v>1.39</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>9</v>
@@ -788,12 +788,12 @@
         <v>2.85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -802,12 +802,12 @@
         <v>3.36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -816,12 +816,12 @@
         <v>3.44</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>20</v>
@@ -830,12 +830,12 @@
         <v>0.94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -844,12 +844,12 @@
         <v>0.26</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -858,12 +858,12 @@
         <v>5.79</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -872,12 +872,12 @@
         <v>3.8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -886,12 +886,12 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -900,12 +900,12 @@
         <v>3.32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -914,12 +914,12 @@
         <v>50.49</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -928,12 +928,12 @@
         <v>3.59</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>20</v>
@@ -942,12 +942,12 @@
         <v>0.59</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28">
         <v>9</v>
@@ -956,12 +956,12 @@
         <v>3.38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B29">
         <v>9</v>
@@ -970,49 +970,48 @@
         <v>3.38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>60</v>
-      </c>
-      <c r="C30" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D17" r:id="rId1"/>
-    <hyperlink ref="D16" r:id="rId2"/>
-    <hyperlink ref="D15" r:id="rId3"/>
-    <hyperlink ref="D14" r:id="rId4"/>
-    <hyperlink ref="D13" r:id="rId5"/>
-    <hyperlink ref="D12" r:id="rId6"/>
-    <hyperlink ref="D11" r:id="rId7"/>
-    <hyperlink ref="D10" r:id="rId8"/>
-    <hyperlink ref="D9" r:id="rId9"/>
-    <hyperlink ref="D8" r:id="rId10"/>
-    <hyperlink ref="D7" r:id="rId11"/>
-    <hyperlink ref="D6" r:id="rId12"/>
-    <hyperlink ref="D5" r:id="rId13"/>
-    <hyperlink ref="D4" r:id="rId14"/>
-    <hyperlink ref="D3" r:id="rId15"/>
-    <hyperlink ref="D2" r:id="rId16"/>
-    <hyperlink ref="D18" r:id="rId17"/>
-    <hyperlink ref="D19" r:id="rId18"/>
-    <hyperlink ref="D20" r:id="rId19"/>
-    <hyperlink ref="D21" r:id="rId20"/>
-    <hyperlink ref="D22" r:id="rId21"/>
-    <hyperlink ref="D23" r:id="rId22"/>
-    <hyperlink ref="D24" r:id="rId23"/>
-    <hyperlink ref="D25" r:id="rId24"/>
-    <hyperlink ref="D26" r:id="rId25"/>
-    <hyperlink ref="D27" r:id="rId26"/>
-    <hyperlink ref="D28" r:id="rId27"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D2" r:id="rId3"/>
+    <hyperlink ref="D28" r:id="rId4"/>
+    <hyperlink ref="D27" r:id="rId5"/>
+    <hyperlink ref="D26" r:id="rId6"/>
+    <hyperlink ref="D25" r:id="rId7"/>
+    <hyperlink ref="D24" r:id="rId8"/>
+    <hyperlink ref="D23" r:id="rId9"/>
+    <hyperlink ref="D22" r:id="rId10"/>
+    <hyperlink ref="D21" r:id="rId11"/>
+    <hyperlink ref="D20" r:id="rId12"/>
+    <hyperlink ref="D19" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="D6" r:id="rId15"/>
+    <hyperlink ref="D7" r:id="rId16"/>
+    <hyperlink ref="D8" r:id="rId17"/>
+    <hyperlink ref="D9" r:id="rId18"/>
+    <hyperlink ref="D10" r:id="rId19"/>
+    <hyperlink ref="D11" r:id="rId20"/>
+    <hyperlink ref="D12" r:id="rId21"/>
+    <hyperlink ref="D13" r:id="rId22"/>
+    <hyperlink ref="D14" r:id="rId23"/>
+    <hyperlink ref="D15" r:id="rId24"/>
+    <hyperlink ref="D16" r:id="rId25"/>
+    <hyperlink ref="D17" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Physical_computing_list.xlsx
+++ b/Physical_computing_list.xlsx
@@ -557,7 +557,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Physical_computing_list.xlsx
+++ b/Physical_computing_list.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Soldering stations</t>
   </si>
@@ -219,7 +219,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -249,6 +249,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -267,9 +275,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -277,7 +286,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -557,7 +567,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J29" sqref="D29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -982,6 +992,9 @@
       </c>
       <c r="C30" t="s">
         <v>60</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
